--- a/data/Autumn.xlsx
+++ b/data/Autumn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\discord-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB1567D-54E7-401C-A854-E21B73756558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1DE2A-A55A-4EE2-AE19-8B0F484E52CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFD69C46-AB7A-470C-884F-0525401FBEB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>d20</t>
   </si>
@@ -47,24 +47,15 @@
     <t>Эффекты</t>
   </si>
   <si>
-    <t>Дождь</t>
-  </si>
-  <si>
     <t>Сильный дождь, ветрено</t>
   </si>
   <si>
     <t>Сильный дождь</t>
   </si>
   <si>
-    <t>Моросящий дождь</t>
-  </si>
-  <si>
     <t>Лёгкий дождь</t>
   </si>
   <si>
-    <t>Пасмурно</t>
-  </si>
-  <si>
     <t>Ветрено</t>
   </si>
   <si>
@@ -77,25 +68,46 @@
     <t>Сильный дождь, сильный ветер</t>
   </si>
   <si>
-    <t>Переменная облачность</t>
-  </si>
-  <si>
     <t>Без изменений</t>
   </si>
   <si>
-    <t>Ясно</t>
-  </si>
-  <si>
-    <t>Град</t>
-  </si>
-  <si>
     <t>Град, гололёд</t>
   </si>
   <si>
-    <t>Жара (Зной)</t>
-  </si>
-  <si>
     <t>Жарко</t>
+  </si>
+  <si>
+    <t>🌧️Дождь</t>
+  </si>
+  <si>
+    <t>🌦️Моросящий дождь</t>
+  </si>
+  <si>
+    <t>☁️Пасмурно</t>
+  </si>
+  <si>
+    <t>⛅Переменная облачность</t>
+  </si>
+  <si>
+    <t>☀️Ясно</t>
+  </si>
+  <si>
+    <t>🌨️Град</t>
+  </si>
+  <si>
+    <t>🔥Жара (Зной)</t>
+  </si>
+  <si>
+    <t>🌬️ Морской шторм</t>
+  </si>
+  <si>
+    <t>⛈️ Гроза</t>
+  </si>
+  <si>
+    <t>сильный ветер</t>
+  </si>
+  <si>
+    <t>сильный дождь, молнии, сильный ветер</t>
   </si>
 </sst>
 </file>
@@ -483,13 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B7361-9CE5-4659-9C41-78983831E449}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -507,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -518,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -529,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -540,10 +556,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -551,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -562,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -573,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -584,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -595,10 +611,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -606,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -617,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -628,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -639,10 +655,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -650,10 +666,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -661,10 +677,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +688,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -683,21 +699,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
